--- a/src/hourly/Hourly_Count_12hr_Shifts_v1.0.xlsx
+++ b/src/hourly/Hourly_Count_12hr_Shifts_v1.0.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="106">
   <si>
     <t>Hourly Count (Standardized Work)</t>
   </si>
@@ -357,161 +357,38 @@
 </t>
   </si>
   <si>
-    <t/>
+    <t>Real Prod.</t>
+  </si>
+  <si>
+    <t>Real Est.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>0001179517/15</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve">
+1010
 L003</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0001180603/15</t>
-  </si>
-  <si>
-    <t>Real Prod.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1140
-</t>
-  </si>
-  <si>
-    <t>Real Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falla camara STN 1140, no detecta spring #6
-</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1190
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriente alta
-</t>
-  </si>
-  <si>
-    <t>Flujo lento por falta de personal</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Seleccione un problema</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>falta de personal</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>0001179009/15</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t xml:space="preserve">
+barreno de flecha tapado
+AUDI-0001174403 a AUDI-0001174403</t>
   </si>
   <si>
     <t xml:space="preserve">
-FORD-0001180603 a VW-0001179009</t>
-  </si>
-  <si>
-    <t>Cambio de grasas</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falla camara STN 1140, no da ciclo
-</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1060
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reajuste de herramental STN 1060
-</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>0001179517/0</t>
+1010
+1020
+L003</t>
   </si>
   <si>
     <t xml:space="preserve">
-VW-0001179517 a FORD-0001180603</t>
-  </si>
-  <si>
-    <t>1160
-L003</t>
-  </si>
-  <si>
-    <t>No enciende panel de control
-VW-0001179517 a FORD-0001180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1160
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No enciende panel de control
-</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1040
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falla STN 1040 alimentador con fibras bloqueadas
-</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falla pernos sucios STN 1030
-</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibra optica pegada
-</t>
+Cilindro dañado 
+Sensor no detecta Arandela
+Cambios NO programados por Logistica</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +2812,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_Tool_fuer_Taktzeitdiagramm_V2.1_deutsch" xfId="1"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2954,7 +2834,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2965,7 +2845,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2977,7 +2857,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3034,927 +2914,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4301,10 +3260,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4322,16 +3281,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4592,19 +3551,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4613,19 +3572,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>189</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7347,7 +6306,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_SystemKPI_HourlyCount.od" displayName="Table_SystemKPI_HourlyCount.od" ref="B2:O26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:O26"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="1" name="Fecha" queryTableFieldId="1" dataDxfId="90"/>
+    <tableColumn id="1" uniqueName="1" name="Fecha" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" uniqueName="2" name="NombreLinea" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="Hora" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="CantProducida" queryTableFieldId="4"/>
@@ -10090,7 +9049,7 @@
   <dimension ref="A1:BE42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
@@ -10252,7 +9211,7 @@
       <c r="AS3" s="343"/>
       <c r="AT3" s="256">
         <f>hourlyJava!B3</f>
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="AU3" s="260"/>
       <c r="AV3" s="261"/>
@@ -10329,11 +9288,11 @@
       </c>
       <c r="E5" s="347"/>
       <c r="F5" s="354" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G5" s="355"/>
       <c r="H5" s="356" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" s="357"/>
       <c r="J5" s="354" t="s">
@@ -10518,19 +9477,19 @@
       </c>
       <c r="F7" s="227">
         <f>IF(SUM(AL7:AQ7)=0,$D7,SUM(D7-AL7-AM7)-(AN7*60/AT2)-(AO7*60/AT2)-(AP7*60/AT2)-(AQ7*60/AT2))</f>
-        <v>155.29411764705881</v>
+        <v>-3.7058823529411882</v>
       </c>
       <c r="G7" s="305">
         <f>F7</f>
-        <v>155.29411764705881</v>
+        <v>-3.7058823529411882</v>
       </c>
       <c r="H7" s="309">
         <f>VALUE(hourlyJava!E9)</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I7" s="309">
         <f>H7</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="J7" s="142"/>
       <c r="K7" s="24"/>
@@ -10561,60 +9520,68 @@
       <c r="AJ7" s="26"/>
       <c r="AK7" s="296" t="str">
         <f>hourlyJava!F9</f>
-        <v>0001179517/15</v>
-      </c>
-      <c r="AL7" s="251" t="str">
-        <f>hourlyJava!G9</f>
-        <v>0</v>
+        <v>-</v>
+      </c>
+      <c r="AL7" s="251">
+        <f>VALUE(hourlyJava!G9)</f>
+        <v>39</v>
       </c>
       <c r="AM7" s="252"/>
       <c r="AN7" s="251">
-        <f>hourlyJava!H9</f>
-        <v>0</v>
+        <f>VALUE(hourlyJava!H9)</f>
+        <v>5</v>
       </c>
       <c r="AO7" s="253">
-        <f>hourlyJava!I9</f>
-        <v>16</v>
+        <f>VALUE(hourlyJava!I9)</f>
+        <v>30</v>
       </c>
       <c r="AP7" s="253">
-        <f>hourlyJava!J9</f>
-        <v>0</v>
+        <f>VALUE(hourlyJava!J9)</f>
+        <v>15</v>
       </c>
       <c r="AQ7" s="253">
-        <f>hourlyJava!K9</f>
+        <f>VALUE(hourlyJava!K9)</f>
         <v>0</v>
       </c>
       <c r="AR7" s="397" t="str">
         <f>hourlyJava!L9</f>
-        <v xml:space="preserve">1060
-</v>
+        <v xml:space="preserve">
+1010
+L003</v>
       </c>
       <c r="AS7" s="398"/>
       <c r="AT7" s="297" t="str">
         <f>hourlyJava!M9</f>
-        <v xml:space="preserve">Reajuste de herramental STN 1060
-</v>
+        <v xml:space="preserve">
+barreno de flecha tapado
+AUDI-0001174403 a AUDI-0001174403</v>
       </c>
       <c r="AU7" s="300" t="str">
         <f>hourlyJava!N9</f>
-        <v/>
+        <v xml:space="preserve">
+1010
+1020
+L003</v>
       </c>
       <c r="AV7" s="374" t="str">
         <f>hourlyJava!O9</f>
-        <v/>
+        <v xml:space="preserve">
+Cilindro dañado 
+Sensor no detecta Arandela
+Cambios NO programados por Logistica</v>
       </c>
       <c r="AW7" s="374"/>
       <c r="AX7" s="183">
         <f>F7/D7*100</f>
-        <v>73.333333333333329</v>
+        <v>-1.7500000000000058</v>
       </c>
       <c r="AY7" s="197">
         <f>AX7</f>
-        <v>73.333333333333329</v>
+        <v>-1.7500000000000058</v>
       </c>
       <c r="BA7" s="293">
         <f>AY7</f>
-        <v>73.333333333333329</v>
+        <v>-1.7500000000000058</v>
       </c>
       <c r="BB7" s="294">
         <f>D7*$AX$3</f>
@@ -10641,19 +9608,19 @@
       </c>
       <c r="F8" s="227">
         <f>IF(SUM(AL8:AQ8)=0,$D8,SUM(D8-AL8-AM8)-(AN8*60/AT2)-(AO8*60/AT2)-(AP8*60/AT2)-(AQ8*60/AT2))</f>
-        <v>151.76470588235293</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G8" s="305">
         <f>IF(F8=0,0,G7+F8)</f>
-        <v>307.05882352941171</v>
+        <v>208.05882352941174</v>
       </c>
       <c r="H8" s="309">
         <f>VALUE(hourlyJava!E10)</f>
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="I8" s="309">
         <f>IF(H8=0,0,I7+H8)</f>
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J8" s="302"/>
       <c r="K8" s="37"/>
@@ -10684,60 +9651,62 @@
       <c r="AJ8" s="22"/>
       <c r="AK8" s="296" t="str">
         <f>hourlyJava!F10</f>
-        <v>0001179517/0</v>
-      </c>
-      <c r="AL8" s="251" t="str">
-        <f>hourlyJava!G10</f>
+        <v>-</v>
+      </c>
+      <c r="AL8" s="251">
+        <f>VALUE(hourlyJava!G10)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="252"/>
       <c r="AN8" s="251">
-        <f>hourlyJava!H10</f>
-        <v>17</v>
+        <f>VALUE(hourlyJava!H10)</f>
+        <v>0</v>
       </c>
       <c r="AO8" s="253">
-        <f>hourlyJava!I10</f>
+        <f>VALUE(hourlyJava!I10)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="253">
-        <f>hourlyJava!J10</f>
+        <f>VALUE(hourlyJava!J10)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="253">
-        <f>hourlyJava!K10</f>
+        <f>VALUE(hourlyJava!K10)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="397" t="str">
         <f>hourlyJava!L10</f>
         <v xml:space="preserve">
-L003</v>
+</v>
       </c>
       <c r="AS8" s="398"/>
       <c r="AT8" s="297" t="str">
         <f>hourlyJava!M10</f>
         <v xml:space="preserve">
-VW-0001179517 a FORD-0001180603</v>
+</v>
       </c>
       <c r="AU8" s="300" t="str">
         <f>hourlyJava!N10</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV8" s="374" t="str">
         <f>hourlyJava!O10</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW8" s="374"/>
       <c r="AX8" s="183">
         <f>F8/D8*100</f>
-        <v>71.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="AY8" s="184">
         <f>$G8/SUM($D7:$D8)*100</f>
-        <v>72.499999999999986</v>
+        <v>49.125</v>
       </c>
       <c r="BA8" s="293">
         <f>$G8/SUM($D$7:$D8)*100</f>
-        <v>72.499999999999986</v>
+        <v>49.125</v>
       </c>
       <c r="BB8" s="294">
         <f t="shared" ref="BB8:BB18" si="1">D8*$AX$3</f>
@@ -10764,11 +9733,11 @@
       </c>
       <c r="F9" s="227">
         <f>IF(SUM(AL9:AQ9)=0,$D9,SUM(D9-AL9-AM9)-(AN9*60/AT2)-(AO9*60/AT2)-(AP9*60/AT2)-(AQ9*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G9" s="305">
         <f t="shared" ref="G9:G17" si="3">IF(F9=0,0,G8+F9)</f>
-        <v>0</v>
+        <v>419.82352941176464</v>
       </c>
       <c r="H9" s="309">
         <f>VALUE(hourlyJava!E11)</f>
@@ -10809,58 +9778,60 @@
         <f>hourlyJava!F11</f>
         <v>-</v>
       </c>
-      <c r="AL9" s="251" t="str">
-        <f>hourlyJava!G11</f>
+      <c r="AL9" s="251">
+        <f>VALUE(hourlyJava!G11)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="252"/>
       <c r="AN9" s="251">
-        <f>hourlyJava!H11</f>
-        <v>13</v>
+        <f>VALUE(hourlyJava!H11)</f>
+        <v>0</v>
       </c>
       <c r="AO9" s="253">
-        <f>hourlyJava!I11</f>
-        <v>47</v>
+        <f>VALUE(hourlyJava!I11)</f>
+        <v>0</v>
       </c>
       <c r="AP9" s="253">
-        <f>hourlyJava!J11</f>
+        <f>VALUE(hourlyJava!J11)</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="253">
-        <f>hourlyJava!K11</f>
+        <f>VALUE(hourlyJava!K11)</f>
         <v>0</v>
       </c>
       <c r="AR9" s="397" t="str">
         <f>hourlyJava!L11</f>
-        <v>1160
-L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AS9" s="398"/>
       <c r="AT9" s="297" t="str">
         <f>hourlyJava!M11</f>
-        <v>No enciende panel de control
-VW-0001179517 a FORD-0001180603</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AU9" s="300" t="str">
         <f>hourlyJava!N11</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV9" s="374" t="str">
         <f>hourlyJava!O11</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW9" s="374"/>
       <c r="AX9" s="183">
         <f t="shared" ref="AX9:AX18" si="5">F9/D9*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY9" s="184">
         <f>G9/SUM(D7:D9)*100</f>
-        <v>0</v>
+        <v>66.083333333333329</v>
       </c>
       <c r="BA9" s="293">
         <f>$G9/SUM($D$7:$D9)*100</f>
-        <v>0</v>
+        <v>66.083333333333329</v>
       </c>
       <c r="BB9" s="294">
         <f t="shared" si="1"/>
@@ -10887,11 +9858,11 @@
       </c>
       <c r="F10" s="227">
         <f>IF(SUM(AL10:AQ10)=0,$D10,SUM(D10-AL10-AM10)-(AN10*60/AT2)-(AO10*60/AT2)-(AP10*60/AT2)-(AQ10*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G10" s="305">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>631.58823529411757</v>
       </c>
       <c r="H10" s="309">
         <f>VALUE(hourlyJava!E12)</f>
@@ -10932,58 +9903,60 @@
         <f>hourlyJava!F12</f>
         <v>-</v>
       </c>
-      <c r="AL10" s="251" t="str">
-        <f>hourlyJava!G12</f>
+      <c r="AL10" s="251">
+        <f>VALUE(hourlyJava!G12)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="252"/>
       <c r="AN10" s="251">
-        <f>hourlyJava!H12</f>
+        <f>VALUE(hourlyJava!H12)</f>
         <v>0</v>
       </c>
       <c r="AO10" s="253">
-        <f>hourlyJava!I12</f>
-        <v>60</v>
+        <f>VALUE(hourlyJava!I12)</f>
+        <v>0</v>
       </c>
       <c r="AP10" s="253">
-        <f>hourlyJava!J12</f>
+        <f>VALUE(hourlyJava!J12)</f>
         <v>0</v>
       </c>
       <c r="AQ10" s="253">
-        <f>hourlyJava!K12</f>
+        <f>VALUE(hourlyJava!K12)</f>
         <v>0</v>
       </c>
       <c r="AR10" s="397" t="str">
         <f>hourlyJava!L12</f>
-        <v xml:space="preserve">1160
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS10" s="398"/>
       <c r="AT10" s="297" t="str">
         <f>hourlyJava!M12</f>
-        <v xml:space="preserve">No enciende panel de control
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU10" s="300" t="str">
         <f>hourlyJava!N12</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV10" s="374" t="str">
         <f>hourlyJava!O12</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW10" s="374"/>
       <c r="AX10" s="183">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY10" s="184">
         <f>G10/SUM(D7:D10)*100</f>
-        <v>0</v>
+        <v>74.5625</v>
       </c>
       <c r="BA10" s="293">
         <f>$G10/SUM($D$7:$D10)*100</f>
-        <v>0</v>
+        <v>74.5625</v>
       </c>
       <c r="BB10" s="294">
         <f t="shared" si="1"/>
@@ -11010,11 +9983,11 @@
       </c>
       <c r="F11" s="227">
         <f>IF(SUM(AL11:AQ11)=0,$D11,SUM(D11-AL11-AM11)-(AN11*60/AT2)-(AO11*60/AT2)-(AP11*60/AT2)-(AQ11*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G11" s="305">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>843.35294117647049</v>
       </c>
       <c r="H11" s="309">
         <f>VALUE(hourlyJava!E13)</f>
@@ -11055,58 +10028,60 @@
         <f>hourlyJava!F13</f>
         <v>-</v>
       </c>
-      <c r="AL11" s="251" t="str">
-        <f>hourlyJava!G13</f>
+      <c r="AL11" s="251">
+        <f>VALUE(hourlyJava!G13)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="252"/>
       <c r="AN11" s="251">
-        <f>hourlyJava!H13</f>
+        <f>VALUE(hourlyJava!H13)</f>
         <v>0</v>
       </c>
       <c r="AO11" s="253">
-        <f>hourlyJava!I13</f>
-        <v>60</v>
+        <f>VALUE(hourlyJava!I13)</f>
+        <v>0</v>
       </c>
       <c r="AP11" s="253">
-        <f>hourlyJava!J13</f>
+        <f>VALUE(hourlyJava!J13)</f>
         <v>0</v>
       </c>
       <c r="AQ11" s="253">
-        <f>hourlyJava!K13</f>
+        <f>VALUE(hourlyJava!K13)</f>
         <v>0</v>
       </c>
       <c r="AR11" s="397" t="str">
         <f>hourlyJava!L13</f>
-        <v xml:space="preserve">1160
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS11" s="398"/>
       <c r="AT11" s="297" t="str">
         <f>hourlyJava!M13</f>
-        <v xml:space="preserve">No enciende panel de control
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU11" s="300" t="str">
         <f>hourlyJava!N13</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV11" s="374" t="str">
         <f>hourlyJava!O13</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW11" s="374"/>
       <c r="AX11" s="183">
         <f>F11/D11*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="184">
         <f>G11/SUM(D7:D11)*100</f>
-        <v>0</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="BA11" s="293">
         <f>$G11/SUM($D$7:$D11)*100</f>
-        <v>0</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="BB11" s="294">
         <f t="shared" si="1"/>
@@ -11133,11 +10108,11 @@
       </c>
       <c r="F12" s="227">
         <f>IF(SUM(AL12:AQ12)=0,$D12,SUM(D12-AL12-AM12)-(AN12*60/AT2)-(AO12*60/AT2)-(AP12*60/AT2)-(AQ12*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G12" s="305">
         <f>IF(F12=0,0,G11+F12)</f>
-        <v>0</v>
+        <v>1055.1176470588234</v>
       </c>
       <c r="H12" s="309">
         <f>VALUE(hourlyJava!E14)</f>
@@ -11178,58 +10153,60 @@
         <f>hourlyJava!F14</f>
         <v>-</v>
       </c>
-      <c r="AL12" s="251" t="str">
-        <f>hourlyJava!G14</f>
+      <c r="AL12" s="251">
+        <f>VALUE(hourlyJava!G14)</f>
         <v>0</v>
       </c>
       <c r="AM12" s="252"/>
       <c r="AN12" s="251">
-        <f>hourlyJava!H14</f>
+        <f>VALUE(hourlyJava!H14)</f>
         <v>0</v>
       </c>
       <c r="AO12" s="253">
-        <f>hourlyJava!I14</f>
-        <v>60</v>
+        <f>VALUE(hourlyJava!I14)</f>
+        <v>0</v>
       </c>
       <c r="AP12" s="253">
-        <f>hourlyJava!J14</f>
+        <f>VALUE(hourlyJava!J14)</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="253">
-        <f>hourlyJava!K14</f>
+        <f>VALUE(hourlyJava!K14)</f>
         <v>0</v>
       </c>
       <c r="AR12" s="397" t="str">
         <f>hourlyJava!L14</f>
-        <v xml:space="preserve">1160
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS12" s="398"/>
       <c r="AT12" s="297" t="str">
         <f>hourlyJava!M14</f>
-        <v xml:space="preserve">No enciende panel de control
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU12" s="300" t="str">
         <f>hourlyJava!N14</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV12" s="374" t="str">
         <f>hourlyJava!O14</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW12" s="374"/>
       <c r="AX12" s="183">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY12" s="184">
         <f>G12/SUM(D7:D12)*100</f>
-        <v>0</v>
+        <v>83.041666666666657</v>
       </c>
       <c r="BA12" s="293">
         <f>$G12/SUM($D$7:$D12)*100</f>
-        <v>0</v>
+        <v>83.041666666666657</v>
       </c>
       <c r="BB12" s="294">
         <f t="shared" si="1"/>
@@ -11260,7 +10237,7 @@
       </c>
       <c r="G13" s="305">
         <f t="shared" si="3"/>
-        <v>211.76470588235293</v>
+        <v>1266.8823529411764</v>
       </c>
       <c r="H13" s="309">
         <f>VALUE(hourlyJava!E15)</f>
@@ -11301,25 +10278,25 @@
         <f>hourlyJava!F15</f>
         <v>-</v>
       </c>
-      <c r="AL13" s="251" t="str">
-        <f>hourlyJava!G15</f>
+      <c r="AL13" s="251">
+        <f>VALUE(hourlyJava!G15)</f>
         <v>0</v>
       </c>
       <c r="AM13" s="252"/>
       <c r="AN13" s="251">
-        <f>hourlyJava!H15</f>
+        <f>VALUE(hourlyJava!H15)</f>
         <v>0</v>
       </c>
       <c r="AO13" s="253">
-        <f>hourlyJava!I15</f>
+        <f>VALUE(hourlyJava!I15)</f>
         <v>0</v>
       </c>
       <c r="AP13" s="253">
-        <f>hourlyJava!J15</f>
+        <f>VALUE(hourlyJava!J15)</f>
         <v>0</v>
       </c>
       <c r="AQ13" s="253">
-        <f>hourlyJava!K15</f>
+        <f>VALUE(hourlyJava!K15)</f>
         <v>0</v>
       </c>
       <c r="AR13" s="397" t="str">
@@ -11335,11 +10312,13 @@
       </c>
       <c r="AU13" s="300" t="str">
         <f>hourlyJava!N15</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV13" s="374" t="str">
         <f>hourlyJava!O15</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW13" s="374"/>
       <c r="AX13" s="183">
@@ -11348,11 +10327,11 @@
       </c>
       <c r="AY13" s="184">
         <f>G13/SUM(D7:D13)*100</f>
-        <v>14.285714285714285</v>
+        <v>85.464285714285708</v>
       </c>
       <c r="BA13" s="293">
         <f>$G13/SUM($D$7:$D13)*100</f>
-        <v>14.285714285714285</v>
+        <v>85.464285714285708</v>
       </c>
       <c r="BB13" s="294">
         <f t="shared" si="1"/>
@@ -11383,15 +10362,15 @@
       </c>
       <c r="G14" s="305">
         <f t="shared" si="3"/>
-        <v>423.52941176470586</v>
+        <v>1478.6470588235293</v>
       </c>
       <c r="H14" s="309">
         <f>VALUE(hourlyJava!E16)</f>
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="I14" s="309">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="J14" s="196"/>
       <c r="K14" s="193"/>
@@ -11422,27 +10401,27 @@
       <c r="AJ14" s="190"/>
       <c r="AK14" s="296" t="str">
         <f>hourlyJava!F16</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL14" s="251" t="str">
-        <f>hourlyJava!G16</f>
+        <v>-</v>
+      </c>
+      <c r="AL14" s="251">
+        <f>VALUE(hourlyJava!G16)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="282"/>
       <c r="AN14" s="251">
-        <f>hourlyJava!H16</f>
+        <f>VALUE(hourlyJava!H16)</f>
         <v>0</v>
       </c>
       <c r="AO14" s="253">
-        <f>hourlyJava!I16</f>
+        <f>VALUE(hourlyJava!I16)</f>
         <v>0</v>
       </c>
       <c r="AP14" s="253">
-        <f>hourlyJava!J16</f>
+        <f>VALUE(hourlyJava!J16)</f>
         <v>0</v>
       </c>
       <c r="AQ14" s="253">
-        <f>hourlyJava!K16</f>
+        <f>VALUE(hourlyJava!K16)</f>
         <v>0</v>
       </c>
       <c r="AR14" s="397" t="str">
@@ -11458,11 +10437,13 @@
       </c>
       <c r="AU14" s="300" t="str">
         <f>hourlyJava!N16</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV14" s="374" t="str">
         <f>hourlyJava!O16</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW14" s="374"/>
       <c r="AX14" s="183">
@@ -11471,11 +10452,11 @@
       </c>
       <c r="AY14" s="184">
         <f>G14/SUM(D7:D14)*100</f>
-        <v>25</v>
+        <v>87.28125</v>
       </c>
       <c r="BA14" s="293">
         <f>$G14/SUM($D$7:$D14)*100</f>
-        <v>25</v>
+        <v>87.28125</v>
       </c>
       <c r="BB14" s="294">
         <f t="shared" si="1"/>
@@ -11506,15 +10487,15 @@
       </c>
       <c r="G15" s="305">
         <f t="shared" si="3"/>
-        <v>635.29411764705878</v>
+        <v>1690.4117647058822</v>
       </c>
       <c r="H15" s="309">
         <f>VALUE(hourlyJava!E17)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" s="309">
         <f t="shared" si="4"/>
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="J15" s="196"/>
       <c r="K15" s="193"/>
@@ -11545,27 +10526,27 @@
       <c r="AJ15" s="190"/>
       <c r="AK15" s="296" t="str">
         <f>hourlyJava!F17</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL15" s="251" t="str">
-        <f>hourlyJava!G17</f>
+        <v>-</v>
+      </c>
+      <c r="AL15" s="251">
+        <f>VALUE(hourlyJava!G17)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="282"/>
       <c r="AN15" s="251">
-        <f>hourlyJava!H17</f>
+        <f>VALUE(hourlyJava!H17)</f>
         <v>0</v>
       </c>
       <c r="AO15" s="253">
-        <f>hourlyJava!I17</f>
+        <f>VALUE(hourlyJava!I17)</f>
         <v>0</v>
       </c>
       <c r="AP15" s="253">
-        <f>hourlyJava!J17</f>
+        <f>VALUE(hourlyJava!J17)</f>
         <v>0</v>
       </c>
       <c r="AQ15" s="253">
-        <f>hourlyJava!K17</f>
+        <f>VALUE(hourlyJava!K17)</f>
         <v>0</v>
       </c>
       <c r="AR15" s="397" t="str">
@@ -11581,11 +10562,13 @@
       </c>
       <c r="AU15" s="300" t="str">
         <f>hourlyJava!N17</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV15" s="374" t="str">
         <f>hourlyJava!O17</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW15" s="374"/>
       <c r="AX15" s="183">
@@ -11594,11 +10577,11 @@
       </c>
       <c r="AY15" s="184">
         <f>G15/SUM(D7:D15)*100</f>
-        <v>33.333333333333329</v>
+        <v>88.694444444444443</v>
       </c>
       <c r="BA15" s="293">
         <f>$G15/SUM($D$7:$D15)*100</f>
-        <v>33.333333333333329</v>
+        <v>88.694444444444443</v>
       </c>
       <c r="BB15" s="294">
         <f t="shared" si="1"/>
@@ -11625,19 +10608,19 @@
       </c>
       <c r="F16" s="227">
         <f>IF(SUM(AL16:AQ16)=0,$D16,SUM(D16-AL16-AM16)-(AN16*60/AT2)-(AO16*60/AT2)-(AP16*60/AT2)-(AQ16*60/AT2))</f>
-        <v>204.70588235294116</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G16" s="305">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>1902.1764705882351</v>
       </c>
       <c r="H16" s="309">
         <f>VALUE(hourlyJava!E18)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I16" s="309">
         <f t="shared" si="4"/>
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="J16" s="196"/>
       <c r="K16" s="193"/>
@@ -11668,60 +10651,62 @@
       <c r="AJ16" s="190"/>
       <c r="AK16" s="296" t="str">
         <f>hourlyJava!F18</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL16" s="251" t="str">
-        <f>hourlyJava!G18</f>
+        <v>-</v>
+      </c>
+      <c r="AL16" s="251">
+        <f>VALUE(hourlyJava!G18)</f>
         <v>0</v>
       </c>
       <c r="AM16" s="282"/>
       <c r="AN16" s="251">
-        <f>hourlyJava!H18</f>
+        <f>VALUE(hourlyJava!H18)</f>
         <v>0</v>
       </c>
       <c r="AO16" s="253">
-        <f>hourlyJava!I18</f>
-        <v>2</v>
+        <f>VALUE(hourlyJava!I18)</f>
+        <v>0</v>
       </c>
       <c r="AP16" s="253">
-        <f>hourlyJava!J18</f>
+        <f>VALUE(hourlyJava!J18)</f>
         <v>0</v>
       </c>
       <c r="AQ16" s="253">
-        <f>hourlyJava!K18</f>
+        <f>VALUE(hourlyJava!K18)</f>
         <v>0</v>
       </c>
       <c r="AR16" s="397" t="str">
         <f>hourlyJava!L18</f>
-        <v xml:space="preserve">1190
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS16" s="398"/>
       <c r="AT16" s="297" t="str">
         <f>hourlyJava!M18</f>
-        <v xml:space="preserve">Corriente alta
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU16" s="300" t="str">
         <f>hourlyJava!N18</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV16" s="374" t="str">
         <f>hourlyJava!O18</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW16" s="374"/>
       <c r="AX16" s="183">
         <f t="shared" si="5"/>
-        <v>96.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="AY16" s="184">
         <f>G16/SUM(D7:D16)*100</f>
-        <v>39.666666666666664</v>
+        <v>89.825000000000003</v>
       </c>
       <c r="BA16" s="293">
         <f>$G16/SUM($D$7:$D16)*100</f>
-        <v>39.666666666666664</v>
+        <v>89.825000000000003</v>
       </c>
       <c r="BB16" s="294">
         <f t="shared" si="1"/>
@@ -11752,15 +10737,15 @@
       </c>
       <c r="G17" s="305">
         <f t="shared" si="3"/>
-        <v>1051.7647058823529</v>
+        <v>2113.9411764705883</v>
       </c>
       <c r="H17" s="309">
         <f>VALUE(hourlyJava!E19)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I17" s="309">
         <f t="shared" si="4"/>
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="J17" s="196"/>
       <c r="K17" s="193"/>
@@ -11791,27 +10776,27 @@
       <c r="AJ17" s="190"/>
       <c r="AK17" s="296" t="str">
         <f>hourlyJava!F19</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL17" s="251" t="str">
-        <f>hourlyJava!G19</f>
+        <v>-</v>
+      </c>
+      <c r="AL17" s="251">
+        <f>VALUE(hourlyJava!G19)</f>
         <v>0</v>
       </c>
       <c r="AM17" s="282"/>
       <c r="AN17" s="251">
-        <f>hourlyJava!H19</f>
+        <f>VALUE(hourlyJava!H19)</f>
         <v>0</v>
       </c>
       <c r="AO17" s="253">
-        <f>hourlyJava!I19</f>
+        <f>VALUE(hourlyJava!I19)</f>
         <v>0</v>
       </c>
       <c r="AP17" s="253">
-        <f>hourlyJava!J19</f>
+        <f>VALUE(hourlyJava!J19)</f>
         <v>0</v>
       </c>
       <c r="AQ17" s="253">
-        <f>hourlyJava!K19</f>
+        <f>VALUE(hourlyJava!K19)</f>
         <v>0</v>
       </c>
       <c r="AR17" s="397" t="str">
@@ -11827,11 +10812,13 @@
       </c>
       <c r="AU17" s="300" t="str">
         <f>hourlyJava!N19</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV17" s="374" t="str">
         <f>hourlyJava!O19</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW17" s="374"/>
       <c r="AX17" s="183">
@@ -11840,11 +10827,11 @@
       </c>
       <c r="AY17" s="184">
         <f>G17/SUM(D7:D17)*100</f>
-        <v>45.151515151515156</v>
+        <v>90.750000000000014</v>
       </c>
       <c r="BA17" s="293">
         <f>$G17/SUM($D$7:$D17)*100</f>
-        <v>45.151515151515156</v>
+        <v>90.750000000000014</v>
       </c>
       <c r="BB17" s="294">
         <f t="shared" si="1"/>
@@ -11871,11 +10858,11 @@
       </c>
       <c r="F18" s="227">
         <f>IF(SUM(AL18:AQ18)=0,$D18,SUM(D18-AL18-AM18)-(AN18*60/AT2)-(AO18*60/AT2)-(AP18*60/AT2)-(AQ18*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G18" s="305">
         <f>IF(F18=0,0,G17+F18)</f>
-        <v>0</v>
+        <v>2325.7058823529414</v>
       </c>
       <c r="H18" s="309">
         <f>VALUE(hourlyJava!E20)</f>
@@ -11916,58 +10903,60 @@
         <f>hourlyJava!F20</f>
         <v>-</v>
       </c>
-      <c r="AL18" s="251" t="str">
-        <f>hourlyJava!G20</f>
+      <c r="AL18" s="251">
+        <f>VALUE(hourlyJava!G20)</f>
         <v>0</v>
       </c>
       <c r="AM18" s="252"/>
       <c r="AN18" s="251">
-        <f>hourlyJava!H20</f>
+        <f>VALUE(hourlyJava!H20)</f>
         <v>0</v>
       </c>
       <c r="AO18" s="253">
-        <f>hourlyJava!I20</f>
-        <v>60</v>
+        <f>VALUE(hourlyJava!I20)</f>
+        <v>0</v>
       </c>
       <c r="AP18" s="253">
-        <f>hourlyJava!J20</f>
+        <f>VALUE(hourlyJava!J20)</f>
         <v>0</v>
       </c>
       <c r="AQ18" s="253">
-        <f>hourlyJava!K20</f>
+        <f>VALUE(hourlyJava!K20)</f>
         <v>0</v>
       </c>
       <c r="AR18" s="397" t="str">
         <f>hourlyJava!L20</f>
-        <v xml:space="preserve">1040
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS18" s="398"/>
       <c r="AT18" s="297" t="str">
         <f>hourlyJava!M20</f>
-        <v xml:space="preserve">Falla STN 1040 alimentador con fibras bloqueadas
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU18" s="300" t="str">
         <f>hourlyJava!N20</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV18" s="374" t="str">
         <f>hourlyJava!O20</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW18" s="374"/>
       <c r="AX18" s="183">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY18" s="184">
         <f>G18/SUM(D7:D18)*100</f>
-        <v>0</v>
+        <v>91.520833333333357</v>
       </c>
       <c r="BA18" s="293">
         <f>$G18/SUM($D$7:$D18)*100</f>
-        <v>0</v>
+        <v>91.520833333333357</v>
       </c>
       <c r="BB18" s="294">
         <f t="shared" si="1"/>
@@ -11989,12 +10978,12 @@
       </c>
       <c r="F19" s="368">
         <f>SUM(F7:F18)</f>
-        <v>1358.8235294117646</v>
+        <v>2325.7058823529414</v>
       </c>
       <c r="G19" s="369"/>
       <c r="H19" s="399">
         <f>SUM(H7:H18)</f>
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="I19" s="400"/>
       <c r="J19" s="202"/>
@@ -12027,7 +11016,7 @@
       <c r="AK19" s="207"/>
       <c r="AL19" s="208">
         <f t="shared" ref="AL19:AQ19" si="6">SUM(AL7:AL18)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AM19" s="185">
         <f t="shared" si="6"/>
@@ -12035,15 +11024,15 @@
       </c>
       <c r="AN19" s="208">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="209">
         <f t="shared" si="6"/>
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="AP19" s="210">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ19" s="210">
         <f t="shared" si="6"/>
@@ -12060,7 +11049,7 @@
       </c>
       <c r="AY19" s="264">
         <f>IF(AY18&lt;&gt;0,AY18,IF(AY17&lt;&gt;0,AY17,IF(AY16&lt;&gt;0,AY16,IF(AY15&lt;&gt;0,AY15,IF(AY14&lt;&gt;0,AY14,IF(AY13&lt;&gt;0,AY13,IF(AY12&lt;&gt;0,AY12,IF(AY11&lt;&gt;0,AY11,IF(AY10&lt;&gt;0,AY10,IF(AY9&lt;&gt;0,AY9,IF(AY8&lt;&gt;0,AY8,IF(AY7=0,AX7,IF(AY7&lt;&gt;0,AY7)))))))))))))/100</f>
-        <v>0.45151515151515154</v>
+        <v>0.91520833333333362</v>
       </c>
       <c r="BA19" s="293"/>
       <c r="BC19" s="283"/>
@@ -12082,19 +11071,19 @@
       </c>
       <c r="F20" s="227">
         <f>IF(SUM(AL20:AQ20)=0,$D20,SUM(D20-AL20-AM20)-(AN20*60/AT2)-(AO20*60/AT2)-(AP20*60/AT2)-(AQ20*60/AT2))</f>
-        <v>45.882352941176464</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G20" s="304">
         <f>F20</f>
-        <v>45.882352941176464</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="H20" s="310">
         <f>VALUE(hourlyJava!E21)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I20" s="310">
         <f>H20</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J20" s="200"/>
       <c r="K20" s="198"/>
@@ -12125,60 +11114,62 @@
       <c r="AJ20" s="201"/>
       <c r="AK20" s="298" t="str">
         <f>hourlyJava!F21</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL20" s="251" t="str">
-        <f>hourlyJava!G21</f>
+        <v>-</v>
+      </c>
+      <c r="AL20" s="251">
+        <f>VALUE(hourlyJava!G21)</f>
         <v>0</v>
       </c>
       <c r="AM20" s="252"/>
       <c r="AN20" s="251">
-        <f>hourlyJava!H21</f>
+        <f>VALUE(hourlyJava!H21)</f>
         <v>0</v>
       </c>
       <c r="AO20" s="251">
-        <f>hourlyJava!I21</f>
-        <v>47</v>
+        <f>VALUE(hourlyJava!I21)</f>
+        <v>0</v>
       </c>
       <c r="AP20" s="251">
-        <f>hourlyJava!J21</f>
+        <f>VALUE(hourlyJava!J21)</f>
         <v>0</v>
       </c>
       <c r="AQ20" s="251">
-        <f>hourlyJava!K21</f>
+        <f>VALUE(hourlyJava!K21)</f>
         <v>0</v>
       </c>
       <c r="AR20" s="395" t="str">
         <f>hourlyJava!L21</f>
-        <v xml:space="preserve">1040
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS20" s="396"/>
       <c r="AT20" s="299" t="str">
         <f>hourlyJava!M21</f>
-        <v xml:space="preserve">Falla STN 1040 alimentador con fibras bloqueadas
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU20" s="301" t="str">
         <f>hourlyJava!N21</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV20" s="384" t="str">
         <f>hourlyJava!O21</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW20" s="384"/>
       <c r="AX20" s="225">
         <f>F20/D20*100</f>
-        <v>21.666666666666664</v>
+        <v>100</v>
       </c>
       <c r="AY20" s="226">
         <f>AX20</f>
-        <v>21.666666666666664</v>
+        <v>100</v>
       </c>
       <c r="BA20" s="293">
         <f>IF(F20&gt;0,SUM($F$19+F20)/($E$19+D20))*100</f>
-        <v>51.025641025641022</v>
+        <v>92.173076923076934</v>
       </c>
       <c r="BB20" s="294">
         <f>D20*$AX$3</f>
@@ -12207,15 +11198,15 @@
       </c>
       <c r="G21" s="305">
         <f>IF(F21=0,0,G20+F21)</f>
-        <v>257.64705882352939</v>
+        <v>423.52941176470586</v>
       </c>
       <c r="H21" s="310">
         <f>VALUE(hourlyJava!E22)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I21" s="311">
         <f>IF(H21=0,0,I20+H21)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J21" s="147"/>
       <c r="K21" s="61"/>
@@ -12246,27 +11237,27 @@
       <c r="AJ21" s="59"/>
       <c r="AK21" s="298" t="str">
         <f>hourlyJava!F22</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL21" s="251" t="str">
-        <f>hourlyJava!G22</f>
+        <v>-</v>
+      </c>
+      <c r="AL21" s="251">
+        <f>VALUE(hourlyJava!G22)</f>
         <v>0</v>
       </c>
       <c r="AM21" s="252"/>
       <c r="AN21" s="251">
-        <f>hourlyJava!H22</f>
+        <f>VALUE(hourlyJava!H22)</f>
         <v>0</v>
       </c>
       <c r="AO21" s="251">
-        <f>hourlyJava!I22</f>
+        <f>VALUE(hourlyJava!I22)</f>
         <v>0</v>
       </c>
       <c r="AP21" s="251">
-        <f>hourlyJava!J22</f>
+        <f>VALUE(hourlyJava!J22)</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="251">
-        <f>hourlyJava!K22</f>
+        <f>VALUE(hourlyJava!K22)</f>
         <v>0</v>
       </c>
       <c r="AR21" s="395" t="str">
@@ -12282,11 +11273,13 @@
       </c>
       <c r="AU21" s="301" t="str">
         <f>hourlyJava!N22</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV21" s="384" t="str">
         <f>hourlyJava!O22</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW21" s="384"/>
       <c r="AX21" s="183">
@@ -12295,11 +11288,11 @@
       </c>
       <c r="AY21" s="184">
         <f>G21/SUM(D20:D21)*100</f>
-        <v>60.833333333333329</v>
+        <v>100</v>
       </c>
       <c r="BA21" s="293">
         <f>IF(F21&gt;0,SUM($F$19+G21)/($E$19+E21))*100</f>
-        <v>54.523809523809533</v>
+        <v>92.732142857142875</v>
       </c>
       <c r="BB21" s="294">
         <f t="shared" ref="BB21:BB31" si="9">D21*$AX$3</f>
@@ -12324,19 +11317,19 @@
       </c>
       <c r="F22" s="227">
         <f>IF(SUM(AL22:AQ22)=0,$D22,SUM(D22-AL22-AM22)-(AN22*60/AT2)-(AO22*60/AT2)-(AP22*60/AT2)-(AQ22*60/AT2))</f>
-        <v>174.47058823529409</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G22" s="305">
         <f t="shared" ref="G22:G31" si="10">IF(F22=0,0,G21+F22)</f>
-        <v>432.11764705882348</v>
+        <v>635.29411764705878</v>
       </c>
       <c r="H22" s="310">
         <f>VALUE(hourlyJava!E23)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I22" s="311">
         <f t="shared" ref="I22:I31" si="11">IF(H22=0,0,I21+H22)</f>
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J22" s="147"/>
       <c r="K22" s="61"/>
@@ -12367,60 +11360,62 @@
       <c r="AJ22" s="59"/>
       <c r="AK22" s="298" t="str">
         <f>hourlyJava!F23</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL22" s="251" t="str">
-        <f>hourlyJava!G23</f>
-        <v>2</v>
+        <v>-</v>
+      </c>
+      <c r="AL22" s="251">
+        <f>VALUE(hourlyJava!G23)</f>
+        <v>0</v>
       </c>
       <c r="AM22" s="252"/>
       <c r="AN22" s="251">
-        <f>hourlyJava!H23</f>
+        <f>VALUE(hourlyJava!H23)</f>
         <v>0</v>
       </c>
       <c r="AO22" s="251">
-        <f>hourlyJava!I23</f>
-        <v>10</v>
+        <f>VALUE(hourlyJava!I23)</f>
+        <v>0</v>
       </c>
       <c r="AP22" s="251">
-        <f>hourlyJava!J23</f>
+        <f>VALUE(hourlyJava!J23)</f>
         <v>0</v>
       </c>
       <c r="AQ22" s="251">
-        <f>hourlyJava!K23</f>
+        <f>VALUE(hourlyJava!K23)</f>
         <v>0</v>
       </c>
       <c r="AR22" s="395" t="str">
         <f>hourlyJava!L23</f>
-        <v xml:space="preserve">1030
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS22" s="396"/>
       <c r="AT22" s="299" t="str">
         <f>hourlyJava!M23</f>
-        <v xml:space="preserve">Falla pernos sucios STN 1030
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU22" s="301" t="str">
         <f>hourlyJava!N23</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV22" s="384" t="str">
         <f>hourlyJava!O23</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW22" s="384"/>
       <c r="AX22" s="183">
         <f t="shared" ref="AX22:AX31" si="12">F22/D22*100</f>
-        <v>82.388888888888872</v>
+        <v>100</v>
       </c>
       <c r="AY22" s="184">
         <f>G22/SUM(D20:D22)*100</f>
-        <v>68.018518518518505</v>
+        <v>100</v>
       </c>
       <c r="BA22" s="293">
         <f t="shared" ref="BA22:BA31" si="13">IF(F22&gt;0,SUM($F$19+G22)/($E$19+E22))*100</f>
-        <v>56.381481481481487</v>
+        <v>93.216666666666683</v>
       </c>
       <c r="BB22" s="294">
         <f t="shared" si="9"/>
@@ -12445,19 +11440,19 @@
       </c>
       <c r="F23" s="227">
         <f>IF(SUM(AL23:AQ23)=0,$D23,SUM(D23-AL23-AM23)-(AN23*60/AT2)-(AO23*60/AT2)-(AP23*60/AT2)-(AQ23*60/AT2))</f>
-        <v>123.52941176470587</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G23" s="305">
         <f t="shared" si="10"/>
-        <v>555.64705882352939</v>
+        <v>847.05882352941171</v>
       </c>
       <c r="H23" s="310">
         <f>VALUE(hourlyJava!E24)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I23" s="311">
         <f t="shared" si="11"/>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J23" s="302"/>
       <c r="K23" s="37"/>
@@ -12488,60 +11483,62 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="298" t="str">
         <f>hourlyJava!F24</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL23" s="251" t="str">
-        <f>hourlyJava!G24</f>
+        <v>-</v>
+      </c>
+      <c r="AL23" s="251">
+        <f>VALUE(hourlyJava!G24)</f>
         <v>0</v>
       </c>
       <c r="AM23" s="252"/>
       <c r="AN23" s="251">
-        <f>hourlyJava!H24</f>
+        <f>VALUE(hourlyJava!H24)</f>
         <v>0</v>
       </c>
       <c r="AO23" s="251">
-        <f>hourlyJava!I24</f>
-        <v>25</v>
+        <f>VALUE(hourlyJava!I24)</f>
+        <v>0</v>
       </c>
       <c r="AP23" s="251">
-        <f>hourlyJava!J24</f>
+        <f>VALUE(hourlyJava!J24)</f>
         <v>0</v>
       </c>
       <c r="AQ23" s="251">
-        <f>hourlyJava!K24</f>
+        <f>VALUE(hourlyJava!K24)</f>
         <v>0</v>
       </c>
       <c r="AR23" s="395" t="str">
         <f>hourlyJava!L24</f>
-        <v xml:space="preserve">1030
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS23" s="396"/>
       <c r="AT23" s="299" t="str">
         <f>hourlyJava!M24</f>
-        <v xml:space="preserve">Falla pernos sucios STN 1030
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU23" s="301" t="str">
         <f>hourlyJava!N24</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV23" s="384" t="str">
         <f>hourlyJava!O24</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW23" s="384"/>
       <c r="AX23" s="183">
         <f t="shared" si="12"/>
-        <v>58.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AY23" s="184">
         <f>G23/SUM(D20:D23)*100</f>
-        <v>65.597222222222229</v>
+        <v>100</v>
       </c>
       <c r="BA23" s="293">
         <f t="shared" si="13"/>
-        <v>56.503472222222229</v>
+        <v>93.640625000000014</v>
       </c>
       <c r="BB23" s="294">
         <f t="shared" si="9"/>
@@ -12566,19 +11563,19 @@
       </c>
       <c r="F24" s="227">
         <f>IF(SUM(AL24:AQ24)=0,$D24,SUM(D24-AL24-AM24)-(AN24*60/AT2)-(AO24*60/AT2)-(AP24*60/AT2)-(AQ24*60/AT2))</f>
-        <v>133.11764705882354</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G24" s="305">
         <f t="shared" si="10"/>
-        <v>688.76470588235293</v>
+        <v>1058.8235294117646</v>
       </c>
       <c r="H24" s="310">
         <f>VALUE(hourlyJava!E25)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I24" s="311">
         <f t="shared" si="11"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J24" s="302"/>
       <c r="K24" s="37"/>
@@ -12609,60 +11606,62 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="298" t="str">
         <f>hourlyJava!F25</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL24" s="251" t="str">
-        <f>hourlyJava!G25</f>
-        <v>1</v>
+        <v>-</v>
+      </c>
+      <c r="AL24" s="251">
+        <f>VALUE(hourlyJava!G25)</f>
+        <v>0</v>
       </c>
       <c r="AM24" s="252"/>
       <c r="AN24" s="251">
-        <f>hourlyJava!H25</f>
+        <f>VALUE(hourlyJava!H25)</f>
         <v>0</v>
       </c>
       <c r="AO24" s="251">
-        <f>hourlyJava!I25</f>
-        <v>22</v>
+        <f>VALUE(hourlyJava!I25)</f>
+        <v>0</v>
       </c>
       <c r="AP24" s="251">
-        <f>hourlyJava!J25</f>
+        <f>VALUE(hourlyJava!J25)</f>
         <v>0</v>
       </c>
       <c r="AQ24" s="251">
-        <f>hourlyJava!K25</f>
+        <f>VALUE(hourlyJava!K25)</f>
         <v>0</v>
       </c>
       <c r="AR24" s="395" t="str">
         <f>hourlyJava!L25</f>
-        <v xml:space="preserve">1030
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS24" s="396"/>
       <c r="AT24" s="299" t="str">
         <f>hourlyJava!M25</f>
-        <v xml:space="preserve">Fibra optica pegada
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU24" s="301" t="str">
         <f>hourlyJava!N25</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV24" s="384" t="str">
         <f>hourlyJava!O25</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW24" s="384"/>
       <c r="AX24" s="183">
         <f t="shared" si="12"/>
-        <v>62.861111111111121</v>
+        <v>100</v>
       </c>
       <c r="AY24" s="184">
         <f>G24/SUM(D20:D24)*100</f>
-        <v>65.050000000000011</v>
+        <v>100</v>
       </c>
       <c r="BA24" s="293">
         <f t="shared" si="13"/>
-        <v>56.877450980392155</v>
+        <v>94.014705882352956</v>
       </c>
       <c r="BB24" s="294">
         <f t="shared" si="9"/>
@@ -12691,7 +11690,7 @@
       </c>
       <c r="G25" s="305">
         <f t="shared" si="10"/>
-        <v>900.52941176470586</v>
+        <v>1270.5882352941176</v>
       </c>
       <c r="H25" s="310">
         <f>VALUE(hourlyJava!E26)</f>
@@ -12732,25 +11731,25 @@
         <f>hourlyJava!F26</f>
         <v>-</v>
       </c>
-      <c r="AL25" s="251" t="str">
-        <f>hourlyJava!G26</f>
+      <c r="AL25" s="251">
+        <f>VALUE(hourlyJava!G26)</f>
         <v>0</v>
       </c>
       <c r="AM25" s="252"/>
       <c r="AN25" s="251">
-        <f>hourlyJava!H26</f>
+        <f>VALUE(hourlyJava!H26)</f>
         <v>0</v>
       </c>
       <c r="AO25" s="251">
-        <f>hourlyJava!I26</f>
+        <f>VALUE(hourlyJava!I26)</f>
         <v>0</v>
       </c>
       <c r="AP25" s="251">
-        <f>hourlyJava!J26</f>
+        <f>VALUE(hourlyJava!J26)</f>
         <v>0</v>
       </c>
       <c r="AQ25" s="251">
-        <f>hourlyJava!K26</f>
+        <f>VALUE(hourlyJava!K26)</f>
         <v>0</v>
       </c>
       <c r="AR25" s="395" t="str">
@@ -12766,11 +11765,13 @@
       </c>
       <c r="AU25" s="301" t="str">
         <f>hourlyJava!N26</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV25" s="384" t="str">
         <f>hourlyJava!O26</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW25" s="384"/>
       <c r="AX25" s="183">
@@ -12779,11 +11780,11 @@
       </c>
       <c r="AY25" s="184">
         <f>G25/SUM(D20:D25)*100</f>
-        <v>70.875</v>
+        <v>100</v>
       </c>
       <c r="BA25" s="293">
         <f t="shared" si="13"/>
-        <v>59.273148148148145</v>
+        <v>94.347222222222243</v>
       </c>
       <c r="BB25" s="294">
         <f t="shared" si="9"/>
@@ -12808,11 +11809,11 @@
       </c>
       <c r="F26" s="227">
         <f>IF(SUM(AL26:AQ26)=0,$D26,SUM(D26-AL26-AM26)-(AN26*60/AT2)-(AO26*60/AT2)-(AP26*60/AT2)-(AQ26*60/AT2))</f>
-        <v>0</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G26" s="305">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1482.3529411764705</v>
       </c>
       <c r="H26" s="311">
         <f>VALUE(hourlyJava!E3)</f>
@@ -12853,58 +11854,60 @@
         <f>hourlyJava!F3</f>
         <v>-</v>
       </c>
-      <c r="AL26" s="251" t="str">
-        <f>hourlyJava!G3</f>
+      <c r="AL26" s="251">
+        <f>VALUE(hourlyJava!G3)</f>
         <v>0</v>
       </c>
       <c r="AM26" s="252"/>
       <c r="AN26" s="251">
-        <f>hourlyJava!H3</f>
+        <f>VALUE(hourlyJava!H3)</f>
         <v>0</v>
       </c>
       <c r="AO26" s="251">
-        <f>hourlyJava!I3</f>
-        <v>60</v>
+        <f>VALUE(hourlyJava!I3)</f>
+        <v>0</v>
       </c>
       <c r="AP26" s="251">
-        <f>hourlyJava!J3</f>
+        <f>VALUE(hourlyJava!J3)</f>
         <v>0</v>
       </c>
       <c r="AQ26" s="251">
-        <f>hourlyJava!K3</f>
+        <f>VALUE(hourlyJava!K3)</f>
         <v>0</v>
       </c>
       <c r="AR26" s="395" t="str">
         <f>hourlyJava!L3</f>
-        <v xml:space="preserve">1140
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS26" s="396"/>
       <c r="AT26" s="299" t="str">
         <f>hourlyJava!M3</f>
-        <v xml:space="preserve">Falla camara STN 1140, no detecta spring #6
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU26" s="301" t="str">
         <f>hourlyJava!N3</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV26" s="384" t="str">
         <f>hourlyJava!O3</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW26" s="384"/>
       <c r="AX26" s="183">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY26" s="184">
         <f>G26/SUM(D20:D26)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA26" s="293">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>94.644736842105274</v>
       </c>
       <c r="BB26" s="294">
         <f t="shared" si="9"/>
@@ -12929,19 +11932,19 @@
       </c>
       <c r="F27" s="227">
         <f>IF(SUM(AL27:AQ27)=0,$D27,SUM(D27-AL27-AM27)-(AN27*60/AT2)-(AO27*60/AT2)-(AP27*60/AT2)-(AQ27*60/AT2))</f>
-        <v>169.41176470588232</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G27" s="305">
         <f t="shared" si="10"/>
-        <v>169.41176470588232</v>
+        <v>1694.1176470588234</v>
       </c>
       <c r="H27" s="311">
         <f>VALUE(hourlyJava!E4)</f>
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I27" s="311">
         <f t="shared" si="11"/>
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="J27" s="241"/>
       <c r="K27" s="215"/>
@@ -12972,60 +11975,62 @@
       <c r="AJ27" s="186"/>
       <c r="AK27" s="298" t="str">
         <f>hourlyJava!F4</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL27" s="251" t="str">
-        <f>hourlyJava!G4</f>
+        <v>-</v>
+      </c>
+      <c r="AL27" s="251">
+        <f>VALUE(hourlyJava!G4)</f>
         <v>0</v>
       </c>
       <c r="AM27" s="282"/>
       <c r="AN27" s="251">
-        <f>hourlyJava!H4</f>
+        <f>VALUE(hourlyJava!H4)</f>
         <v>0</v>
       </c>
       <c r="AO27" s="251">
-        <f>hourlyJava!I4</f>
-        <v>2</v>
+        <f>VALUE(hourlyJava!I4)</f>
+        <v>0</v>
       </c>
       <c r="AP27" s="251">
-        <f>hourlyJava!J4</f>
-        <v>10</v>
+        <f>VALUE(hourlyJava!J4)</f>
+        <v>0</v>
       </c>
       <c r="AQ27" s="251">
-        <f>hourlyJava!K4</f>
+        <f>VALUE(hourlyJava!K4)</f>
         <v>0</v>
       </c>
       <c r="AR27" s="395" t="str">
         <f>hourlyJava!L4</f>
-        <v xml:space="preserve">1190
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS27" s="396"/>
       <c r="AT27" s="299" t="str">
         <f>hourlyJava!M4</f>
-        <v xml:space="preserve">Corriente alta
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU27" s="301" t="str">
         <f>hourlyJava!N4</f>
-        <v>L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV27" s="384" t="str">
         <f>hourlyJava!O4</f>
-        <v>Flujo lento por falta de personal</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW27" s="384"/>
       <c r="AX27" s="225">
         <f>F27/D27*100</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AY27" s="184">
         <f>G27/SUM(D20:D27)*100</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="BA27" s="293">
         <f t="shared" si="13"/>
-        <v>36.083333333333329</v>
+        <v>94.912500000000009</v>
       </c>
       <c r="BB27" s="294">
         <f t="shared" si="9"/>
@@ -13050,19 +12055,19 @@
       </c>
       <c r="F28" s="227">
         <f>IF(SUM(AL28:AQ28)=0,$D28,SUM(D28-AL28-AM28)-(AN28*60/AT2)-(AO28*60/AT2)-(AP28*60/AT2)-(AQ28*60/AT2))</f>
-        <v>169.41176470588232</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G28" s="305">
         <f t="shared" si="10"/>
-        <v>338.82352941176464</v>
+        <v>1905.8823529411764</v>
       </c>
       <c r="H28" s="311">
         <f>VALUE(hourlyJava!E5)</f>
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I28" s="311">
         <f t="shared" si="11"/>
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="J28" s="241"/>
       <c r="K28" s="215"/>
@@ -13093,60 +12098,62 @@
       <c r="AJ28" s="186"/>
       <c r="AK28" s="298" t="str">
         <f>hourlyJava!F5</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL28" s="251" t="str">
-        <f>hourlyJava!G5</f>
+        <v>-</v>
+      </c>
+      <c r="AL28" s="251">
+        <f>VALUE(hourlyJava!G5)</f>
         <v>0</v>
       </c>
       <c r="AM28" s="282"/>
       <c r="AN28" s="251">
-        <f>hourlyJava!H5</f>
+        <f>VALUE(hourlyJava!H5)</f>
         <v>0</v>
       </c>
       <c r="AO28" s="251">
-        <f>hourlyJava!I5</f>
-        <v>2</v>
+        <f>VALUE(hourlyJava!I5)</f>
+        <v>0</v>
       </c>
       <c r="AP28" s="251">
-        <f>hourlyJava!J5</f>
-        <v>10</v>
+        <f>VALUE(hourlyJava!J5)</f>
+        <v>0</v>
       </c>
       <c r="AQ28" s="251">
-        <f>hourlyJava!K5</f>
+        <f>VALUE(hourlyJava!K5)</f>
         <v>0</v>
       </c>
       <c r="AR28" s="395" t="str">
         <f>hourlyJava!L5</f>
-        <v xml:space="preserve">1190
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS28" s="396"/>
       <c r="AT28" s="299" t="str">
         <f>hourlyJava!M5</f>
-        <v xml:space="preserve">Corriente alta
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU28" s="301" t="str">
         <f>hourlyJava!N5</f>
-        <v>L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV28" s="384" t="str">
         <f>hourlyJava!O5</f>
-        <v>Seleccione un problema</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW28" s="384"/>
       <c r="AX28" s="183">
         <f>F28/D28*100</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AY28" s="184">
         <f>G28/SUM(D20:D28)*100</f>
-        <v>17.777777777777775</v>
+        <v>100</v>
       </c>
       <c r="BA28" s="293">
         <f t="shared" si="13"/>
-        <v>38.17460317460317</v>
+        <v>95.154761904761926</v>
       </c>
       <c r="BB28" s="294">
         <f t="shared" si="9"/>
@@ -13171,19 +12178,19 @@
       </c>
       <c r="F29" s="227">
         <f>IF(SUM(AL29:AQ29)=0,$D29,SUM(D29-AL29-AM29)-(AN29*60/AT2)-(AO29*60/AT2)-(AP29*60/AT2)-(AQ29*60/AT2))</f>
-        <v>162.35294117647058</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G29" s="305">
         <f t="shared" si="10"/>
-        <v>501.17647058823525</v>
+        <v>2117.6470588235293</v>
       </c>
       <c r="H29" s="311">
         <f>VALUE(hourlyJava!E6)</f>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="I29" s="311">
         <f t="shared" si="11"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J29" s="241"/>
       <c r="K29" s="215"/>
@@ -13214,60 +12221,62 @@
       <c r="AJ29" s="186"/>
       <c r="AK29" s="298" t="str">
         <f>hourlyJava!F6</f>
-        <v>0001180603/15</v>
-      </c>
-      <c r="AL29" s="251" t="str">
-        <f>hourlyJava!G6</f>
+        <v>-</v>
+      </c>
+      <c r="AL29" s="251">
+        <f>VALUE(hourlyJava!G6)</f>
         <v>0</v>
       </c>
       <c r="AM29" s="282"/>
       <c r="AN29" s="251">
-        <f>hourlyJava!H6</f>
+        <f>VALUE(hourlyJava!H6)</f>
         <v>0</v>
       </c>
       <c r="AO29" s="251">
-        <f>hourlyJava!I6</f>
-        <v>2</v>
+        <f>VALUE(hourlyJava!I6)</f>
+        <v>0</v>
       </c>
       <c r="AP29" s="251">
-        <f>hourlyJava!J6</f>
-        <v>12</v>
+        <f>VALUE(hourlyJava!J6)</f>
+        <v>0</v>
       </c>
       <c r="AQ29" s="251">
-        <f>hourlyJava!K6</f>
+        <f>VALUE(hourlyJava!K6)</f>
         <v>0</v>
       </c>
       <c r="AR29" s="395" t="str">
         <f>hourlyJava!L6</f>
-        <v xml:space="preserve">1190
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS29" s="396"/>
       <c r="AT29" s="299" t="str">
         <f>hourlyJava!M6</f>
-        <v xml:space="preserve">Corriente alta
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU29" s="301" t="str">
         <f>hourlyJava!N6</f>
-        <v>L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV29" s="384" t="str">
         <f>hourlyJava!O6</f>
-        <v>falta de personal</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW29" s="384"/>
       <c r="AX29" s="183">
         <f t="shared" si="12"/>
-        <v>76.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="AY29" s="184">
         <f>G29/SUM(D20:D29)*100</f>
-        <v>23.666666666666668</v>
+        <v>100</v>
       </c>
       <c r="BA29" s="293">
         <f t="shared" si="13"/>
-        <v>39.924242424242429</v>
+        <v>95.375000000000014</v>
       </c>
       <c r="BB29" s="294">
         <f t="shared" si="9"/>
@@ -13292,19 +12301,19 @@
       </c>
       <c r="F30" s="227">
         <f>IF(SUM(AL30:AQ30)=0,$D30,SUM(D30-AL30-AM30)-(AN30*60/AT2)-(AO30*60/AT2)-(AP30*60/AT2)-(AQ30*60/AT2))</f>
-        <v>34.294117647058812</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G30" s="305">
         <f t="shared" si="10"/>
-        <v>535.47058823529403</v>
+        <v>2329.411764705882</v>
       </c>
       <c r="H30" s="311">
         <f>VALUE(hourlyJava!E7)</f>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I30" s="311">
         <f t="shared" si="11"/>
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="J30" s="241"/>
       <c r="K30" s="215"/>
@@ -13335,60 +12344,62 @@
       <c r="AJ30" s="186"/>
       <c r="AK30" s="298" t="str">
         <f>hourlyJava!F7</f>
-        <v>0001179009/15</v>
-      </c>
-      <c r="AL30" s="251" t="str">
-        <f>hourlyJava!G7</f>
-        <v>1</v>
+        <v>-</v>
+      </c>
+      <c r="AL30" s="251">
+        <f>VALUE(hourlyJava!G7)</f>
+        <v>0</v>
       </c>
       <c r="AM30" s="282"/>
       <c r="AN30" s="251">
-        <f>hourlyJava!H7</f>
-        <v>20</v>
+        <f>VALUE(hourlyJava!H7)</f>
+        <v>0</v>
       </c>
       <c r="AO30" s="251">
-        <f>hourlyJava!I7</f>
+        <f>VALUE(hourlyJava!I7)</f>
         <v>0</v>
       </c>
       <c r="AP30" s="251">
-        <f>hourlyJava!J7</f>
-        <v>30</v>
+        <f>VALUE(hourlyJava!J7)</f>
+        <v>0</v>
       </c>
       <c r="AQ30" s="251">
-        <f>hourlyJava!K7</f>
+        <f>VALUE(hourlyJava!K7)</f>
         <v>0</v>
       </c>
       <c r="AR30" s="395" t="str">
         <f>hourlyJava!L7</f>
         <v xml:space="preserve">
-L003</v>
+</v>
       </c>
       <c r="AS30" s="396"/>
       <c r="AT30" s="299" t="str">
         <f>hourlyJava!M7</f>
         <v xml:space="preserve">
-FORD-0001180603 a VW-0001179009</v>
+</v>
       </c>
       <c r="AU30" s="301" t="str">
         <f>hourlyJava!N7</f>
-        <v>L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV30" s="384" t="str">
         <f>hourlyJava!O7</f>
-        <v>Cambio de grasas</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW30" s="384"/>
       <c r="AX30" s="183">
         <f t="shared" si="12"/>
-        <v>16.194444444444439</v>
+        <v>100</v>
       </c>
       <c r="AY30" s="184">
         <f>G30/SUM(D20:D30)*100</f>
-        <v>22.987373737373737</v>
+        <v>100</v>
       </c>
       <c r="BA30" s="293">
         <f>IF(F30&gt;0,SUM($F$19+G30)/($E$19+E30))*100</f>
-        <v>38.892512077294683</v>
+        <v>95.576086956521749</v>
       </c>
       <c r="BB30" s="294">
         <f t="shared" si="9"/>
@@ -13413,19 +12424,19 @@
       </c>
       <c r="F31" s="227">
         <f>IF(SUM(AL31:AQ31)=0,$D31,SUM(D31-AL31-AM31)-(AN31*60/AT2)-(AO31*60/AT2)-(AP31*60/AT2)-(AQ31*60/AT2))</f>
-        <v>34.294117647058812</v>
+        <v>211.76470588235293</v>
       </c>
       <c r="G31" s="305">
         <f t="shared" si="10"/>
-        <v>569.76470588235281</v>
+        <v>2541.1764705882351</v>
       </c>
       <c r="H31" s="311">
         <f>VALUE(hourlyJava!E8)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I31" s="311">
         <f t="shared" si="11"/>
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="J31" s="241"/>
       <c r="K31" s="215"/>
@@ -13456,60 +12467,62 @@
       <c r="AJ31" s="186"/>
       <c r="AK31" s="298" t="str">
         <f>hourlyJava!F8</f>
-        <v>0001179009/15</v>
-      </c>
-      <c r="AL31" s="251" t="str">
-        <f>hourlyJava!G8</f>
-        <v>1</v>
+        <v>-</v>
+      </c>
+      <c r="AL31" s="251">
+        <f>VALUE(hourlyJava!G8)</f>
+        <v>0</v>
       </c>
       <c r="AM31" s="252"/>
       <c r="AN31" s="251">
-        <f>hourlyJava!H8</f>
+        <f>VALUE(hourlyJava!H8)</f>
         <v>0</v>
       </c>
       <c r="AO31" s="251">
-        <f>hourlyJava!I8</f>
-        <v>30</v>
+        <f>VALUE(hourlyJava!I8)</f>
+        <v>0</v>
       </c>
       <c r="AP31" s="251">
-        <f>hourlyJava!J8</f>
-        <v>20</v>
+        <f>VALUE(hourlyJava!J8)</f>
+        <v>0</v>
       </c>
       <c r="AQ31" s="251">
-        <f>hourlyJava!K8</f>
+        <f>VALUE(hourlyJava!K8)</f>
         <v>0</v>
       </c>
       <c r="AR31" s="395" t="str">
         <f>hourlyJava!L8</f>
-        <v xml:space="preserve">1140
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AS31" s="396"/>
       <c r="AT31" s="299" t="str">
         <f>hourlyJava!M8</f>
-        <v xml:space="preserve">Falla camara STN 1140, no da ciclo
+        <v xml:space="preserve">
 </v>
       </c>
       <c r="AU31" s="301" t="str">
         <f>hourlyJava!N8</f>
-        <v>L003</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AV31" s="384" t="str">
         <f>hourlyJava!O8</f>
-        <v>Flujo lento por falta de personal</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AW31" s="384"/>
       <c r="AX31" s="183">
         <f t="shared" si="12"/>
-        <v>16.194444444444439</v>
+        <v>100</v>
       </c>
       <c r="AY31" s="184">
         <f>G31/SUM(D20:D31)*100</f>
-        <v>22.421296296296291</v>
+        <v>100</v>
       </c>
       <c r="BA31" s="293">
         <f t="shared" si="13"/>
-        <v>37.94675925925926</v>
+        <v>95.760416666666671</v>
       </c>
       <c r="BB31" s="294">
         <f t="shared" si="9"/>
@@ -13531,12 +12544,12 @@
       </c>
       <c r="F32" s="370">
         <f>SUM(F20:F31)</f>
-        <v>1470.2941176470588</v>
+        <v>2541.1764705882351</v>
       </c>
       <c r="G32" s="371"/>
       <c r="H32" s="401">
         <f>SUM(H20:H31)</f>
-        <v>1263</v>
+        <v>0</v>
       </c>
       <c r="I32" s="402"/>
       <c r="J32" s="218"/>
@@ -13577,15 +12590,15 @@
       </c>
       <c r="AN32" s="208">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="209">
         <f>SUM(AO20:AO31)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="210">
         <f>SUM(AP20:AP31)</f>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="210">
         <f t="shared" si="14"/>
@@ -13602,7 +12615,7 @@
       </c>
       <c r="AY32" s="264">
         <f>IF(AY31&lt;&gt;0,AY31,IF(AY30&lt;&gt;0,AY30,IF(AY29&lt;&gt;0,AY29,IF(AY28&lt;&gt;0,AY28,IF(AY27&lt;&gt;0,AY27,IF(AY26&lt;&gt;0,AY26,IF(AY25&lt;&gt;0,AY25,IF(AY24&lt;&gt;0,AY24,IF(AY23&lt;&gt;0,AY23,IF(AY22&lt;&gt;0,AY22,IF(AY21&lt;&gt;0,AY21,IF(AY20=0,AX20,IF(AY20&lt;&gt;0,AY20)))))))))))))/100</f>
-        <v>0.22421296296296289</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="293"/>
       <c r="BC32" s="283"/>
@@ -13619,7 +12632,7 @@
       </c>
       <c r="F33" s="370">
         <f>SUM(F7:F18,F20:F31)</f>
-        <v>2829.1176470588239</v>
+        <v>4866.8823529411793</v>
       </c>
       <c r="G33" s="371"/>
       <c r="H33" s="303"/>
@@ -13656,7 +12669,7 @@
       <c r="AK33" s="391"/>
       <c r="AL33" s="223">
         <f t="shared" ref="AL33:AQ33" si="15">AL19+AL32</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AM33" s="189">
         <f t="shared" si="15"/>
@@ -13664,15 +12677,15 @@
       </c>
       <c r="AN33" s="189">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AO33" s="189">
         <f t="shared" si="15"/>
-        <v>505</v>
+        <v>30</v>
       </c>
       <c r="AP33" s="189">
         <f t="shared" si="15"/>
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="AQ33" s="232">
         <f t="shared" si="15"/>
@@ -13797,7 +12810,7 @@
       <c r="AW35" s="159"/>
       <c r="AX35" s="378">
         <f>IF(BA31&lt;&gt;0,BA31,IF(BA30&lt;&gt;0,BA30,IF(BA29&lt;&gt;0,BA29,IF(BA28&lt;&gt;0,BA28,IF(BA27&lt;&gt;0,BA27,IF(BA26&lt;&gt;0,BA26,IF(BA25&lt;&gt;0,BA25,IF(BA24&lt;&gt;0,BA24,IF(BA23&lt;&gt;0,BA23,IF(BA22&lt;&gt;0,BA22,IF(BA21&lt;&gt;0,BA21,IF(BA20&lt;&gt;0,BA20,IF(BA18&lt;&gt;0,BA18,IF(BA17&lt;&gt;0,BA17,IF(BA16&lt;&gt;0,BA16,IF(BA15&lt;&gt;0,BA15,IF(BA14&lt;&gt;0,BA14,IF(BA13&lt;&gt;0,BA13,IF(BA12&lt;&gt;0,BA12,IF(BA11&lt;&gt;0,BA11,IF(BA10&lt;&gt;0,BA10,IF(BA9&lt;&gt;0,BA9,IF(BA8&lt;&gt;0,BA8,IF(BA7&lt;&gt;0,BA7))))))))))))))))))))))))/100</f>
-        <v>0.37946759259259261</v>
+        <v>0.9576041666666667</v>
       </c>
       <c r="AY35" s="379"/>
     </row>
@@ -14107,106 +13120,106 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F18">
-    <cfRule type="expression" dxfId="59" priority="47">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>$F7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="51">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$F7&gt;$BB7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="52">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$F7&lt;$BB7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="53">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>$F7=$BB7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F31">
-    <cfRule type="expression" dxfId="55" priority="38">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>$F20=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$F20&gt;$BB20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="40">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>$F20&lt;$BB20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="41">
+    <cfRule type="expression" dxfId="23" priority="41">
       <formula>$F20=$BB20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX35:AY37">
-    <cfRule type="expression" dxfId="51" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>$AX$35=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$AX$35&gt;$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>$AX$35=$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>$AX$35&lt;$AX$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:H19 J19:AY19">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$AY$19=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$AY$19&gt;$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$AY$19=$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>$AY$19&lt;$AX$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H32 J32:AY32">
-    <cfRule type="expression" dxfId="43" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$AY$32=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>$AY$32=$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$AY$32&gt;$AX$3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$AY$32&lt;$AX$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H18">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$H7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND($H7&gt;$F7, $H7&gt;$D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND($H7=$F7,$H7=$D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND($H7&lt;$F7,$H7&lt;$D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($H7&gt;$F7,$H7&lt;$D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H31">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($H20&gt;$F20,$H20&lt;$D20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND($H20&lt;$F20,$H20&lt;$D20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND($H20=$F20,$H20=$D20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($H20&gt;$F20, $H20&gt;$D20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$H20=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14236,16 +13249,16 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -14294,7 +13307,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
@@ -14306,7 +13319,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>96</v>
@@ -14315,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -14324,21 +13337,21 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -14347,10 +13360,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>96</v>
@@ -14359,30 +13372,30 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
@@ -14391,10 +13404,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>96</v>
@@ -14403,30 +13416,30 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -14435,10 +13448,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>96</v>
@@ -14447,30 +13460,30 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -14479,42 +13492,42 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -14523,42 +13536,42 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -14567,42 +13580,42 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
@@ -14611,16 +13624,16 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>96</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -14632,21 +13645,21 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C11" t="s">
         <v>95</v>
@@ -14658,16 +13671,16 @@
         <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>96</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14676,21 +13689,21 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -14702,7 +13715,7 @@
         <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>96</v>
@@ -14711,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -14720,21 +13733,21 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -14746,7 +13759,7 @@
         <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>96</v>
@@ -14755,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -14764,21 +13777,21 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
@@ -14790,7 +13803,7 @@
         <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>96</v>
@@ -14799,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -14808,21 +13821,21 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C15" t="s">
         <v>95</v>
@@ -14834,7 +13847,7 @@
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
@@ -14858,15 +13871,15 @@
         <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C16" t="s">
         <v>95</v>
@@ -14875,10 +13888,10 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
         <v>96</v>
@@ -14902,15 +13915,15 @@
         <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C17" t="s">
         <v>95</v>
@@ -14919,10 +13932,10 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>96</v>
@@ -14946,15 +13959,15 @@
         <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C18" t="s">
         <v>95</v>
@@ -14963,10 +13976,10 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>96</v>
@@ -14975,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -14984,21 +13997,21 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C19" t="s">
         <v>95</v>
@@ -15007,10 +14020,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>96</v>
@@ -15034,15 +14047,15 @@
         <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
@@ -15054,7 +14067,7 @@
         <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
         <v>96</v>
@@ -15063,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -15072,21 +14085,21 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M20" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C21" t="s">
         <v>95</v>
@@ -15095,10 +14108,10 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
         <v>96</v>
@@ -15107,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -15116,21 +14129,21 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
@@ -15139,10 +14152,10 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -15166,15 +14179,15 @@
         <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
@@ -15183,19 +14196,19 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -15204,21 +14217,21 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
@@ -15227,10 +14240,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>96</v>
@@ -15239,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -15248,21 +14261,21 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M24" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C25" t="s">
         <v>95</v>
@@ -15271,19 +14284,19 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -15292,21 +14305,21 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="295">
-        <v>43018</v>
+        <v>43034</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
@@ -15318,7 +14331,7 @@
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>96</v>
@@ -15342,10 +14355,10 @@
         <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
